--- a/Klasa 4/Excel/Zbiornik/zbiornik.xlsx
+++ b/Klasa 4/Excel/Zbiornik/zbiornik.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Informatyka\Klasa 4\Excel\Zbiornik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Informatyka\Klasa 4\Excel\Zbiornik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F525FAE-6979-4500-AEDA-BB16C0BBDFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{6569026C-46A5-46D2-BF1A-427E8F9DE9D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="deszcz" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="pojemnosc">dane!$B$3</definedName>
     <definedName name="powierzchnia">dane!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,15 +42,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5A98F008-C729-4EAB-9FC1-6354AD75013F}" keepAlive="1" name="Zapytanie — deszcz" description="Połączenie z zapytaniem „deszcz” w skoroszycie." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Zapytanie — deszcz" description="Połączenie z zapytaniem „deszcz” w skoroszycie." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=deszcz;Extended Properties=&quot;&quot;" command="SELECT * FROM [deszcz]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>data</t>
   </si>
@@ -113,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,10 +160,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -498,26 +497,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525DDEF2-EE53-4C80-81F4-6373D917D720}">
-  <dimension ref="A1:L154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>41760</v>
       </c>
@@ -558,15 +557,15 @@
         <v>2500000</v>
       </c>
       <c r="E2" s="4">
-        <f>IF(C2,103%*D2,99%*(D2-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" ref="E2:E33" si="0">IF(C2,103%*D2,99%*(D2-2*l_dzialek*powierzchnia))</f>
         <v>2376000</v>
       </c>
       <c r="F2" s="5">
-        <f>IF(E2&gt;pojemnosc,E2-pojemnosc,0)</f>
+        <f t="shared" ref="F2:F33" si="1">IF(E2&gt;pojemnosc,E2-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <f>IF(WEEKDAY(A2,2)=6,IF(F2&gt;0,0,MIN(pojemnosc-E2,500000)),0)</f>
+        <f t="shared" ref="G2:G33" si="2">IF(WEEKDAY(A2,2)=6,IF(F2&gt;0,0,MIN(pojemnosc-E2,500000)),0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="4">
@@ -574,12 +573,12 @@
         <v>2376000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>41761</v>
       </c>
       <c r="B3" s="6">
-        <f t="shared" ref="B3:B66" si="0">WEEKDAY(A3,2)</f>
+        <f t="shared" ref="B3:B66" si="3">WEEKDAY(A3,2)</f>
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -590,15 +589,15 @@
         <v>2376000</v>
       </c>
       <c r="E3" s="4">
-        <f>IF(C3,103%*D3,99%*(D3-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="0"/>
         <v>2447280</v>
       </c>
       <c r="F3" s="5">
-        <f>IF(E3&gt;pojemnosc,E3-pojemnosc,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f>IF(WEEKDAY(A3,2)=6,IF(F3&gt;0,0,MIN(pojemnosc-E3,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H3" s="4">
@@ -609,35 +608,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>41762</v>
       </c>
       <c r="B4" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D67" si="4">H3</f>
+        <v>2447280</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D67" si="1">H3</f>
-        <v>2447280</v>
-      </c>
-      <c r="E4" s="4">
-        <f>IF(C4,103%*D4,99%*(D4-2*l_dzialek*powierzchnia))</f>
         <v>2323807.2000000002</v>
       </c>
       <c r="F4" s="5">
-        <f>IF(E4&gt;pojemnosc,E4-pojemnosc,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f>IF(WEEKDAY(A4,2)=6,IF(F4&gt;0,0,MIN(pojemnosc-E4,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>176192.79999999981</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="2">E4-F4+G4</f>
+        <f t="shared" ref="H4:H67" si="5">E4-F4+G4</f>
         <v>2500000</v>
       </c>
       <c r="L4">
@@ -645,4810 +644,4813 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>41763</v>
       </c>
       <c r="B5" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+        <v>2376000</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="E5" s="4">
-        <f>IF(C5,103%*D5,99%*(D5-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="5"/>
         <v>2376000</v>
       </c>
-      <c r="F5" s="5">
-        <f>IF(E5&gt;pojemnosc,E5-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <f>IF(WEEKDAY(A5,2)=6,IF(F5&gt;0,0,MIN(pojemnosc-E5,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>2376000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>41764</v>
       </c>
       <c r="B6" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="4"/>
+        <v>2376000</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+        <v>2253240</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>2376000</v>
-      </c>
-      <c r="E6" s="4">
-        <f>IF(C6,103%*D6,99%*(D6-2*l_dzialek*powierzchnia))</f>
-        <v>2253240</v>
-      </c>
-      <c r="F6" s="5">
-        <f>IF(E6&gt;pojemnosc,E6-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <f>IF(WEEKDAY(A6,2)=6,IF(F6&gt;0,0,MIN(pojemnosc-E6,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2253240</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>41765</v>
       </c>
       <c r="B7" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="4"/>
+        <v>2253240</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+        <v>2320837.2000000002</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>2253240</v>
-      </c>
-      <c r="E7" s="4">
-        <f>IF(C7,103%*D7,99%*(D7-2*l_dzialek*powierzchnia))</f>
-        <v>2320837.2000000002</v>
-      </c>
-      <c r="F7" s="5">
-        <f>IF(E7&gt;pojemnosc,E7-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>IF(WEEKDAY(A7,2)=6,IF(F7&gt;0,0,MIN(pojemnosc-E7,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2320837.2000000002</v>
       </c>
       <c r="L7" s="4">
         <f>SUM(G2:G154)</f>
         <v>8289355.5719204126</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>41766</v>
       </c>
       <c r="B8" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="4"/>
+        <v>2320837.2000000002</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+        <v>2390462.3160000001</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>2320837.2000000002</v>
-      </c>
-      <c r="E8" s="4">
-        <f>IF(C8,103%*D8,99%*(D8-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="5"/>
         <v>2390462.3160000001</v>
       </c>
-      <c r="F8" s="5">
-        <f>IF(E8&gt;pojemnosc,E8-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <f>IF(WEEKDAY(A8,2)=6,IF(F8&gt;0,0,MIN(pojemnosc-E8,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="2"/>
-        <v>2390462.3160000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>41767</v>
       </c>
       <c r="B9" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="4"/>
+        <v>2390462.3160000001</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+        <v>2462176.18548</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>2390462.3160000001</v>
-      </c>
-      <c r="E9" s="4">
-        <f>IF(C9,103%*D9,99%*(D9-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="5"/>
         <v>2462176.18548</v>
       </c>
-      <c r="F9" s="5">
-        <f>IF(E9&gt;pojemnosc,E9-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <f>IF(WEEKDAY(A9,2)=6,IF(F9&gt;0,0,MIN(pojemnosc-E9,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="2"/>
-        <v>2462176.18548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>41768</v>
       </c>
       <c r="B10" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="4"/>
+        <v>2462176.18548</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
+        <v>2536041.4710444002</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>2462176.18548</v>
-      </c>
-      <c r="E10" s="4">
-        <f>IF(C10,103%*D10,99%*(D10-2*l_dzialek*powierzchnia))</f>
-        <v>2536041.4710444002</v>
-      </c>
-      <c r="F10" s="5">
-        <f>IF(E10&gt;pojemnosc,E10-pojemnosc,0)</f>
         <v>36041.471044400241</v>
       </c>
       <c r="G10" s="5">
-        <f>IF(WEEKDAY(A10,2)=6,IF(F10&gt;0,0,MIN(pojemnosc-E10,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>41769</v>
       </c>
       <c r="B11" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
+        <v>2575000</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-      <c r="E11" s="4">
-        <f>IF(C11,103%*D11,99%*(D11-2*l_dzialek*powierzchnia))</f>
-        <v>2575000</v>
-      </c>
-      <c r="F11" s="5">
-        <f>IF(E11&gt;pojemnosc,E11-pojemnosc,0)</f>
-        <v>75000</v>
-      </c>
-      <c r="G11" s="5">
-        <f>IF(WEEKDAY(A11,2)=6,IF(F11&gt;0,0,MIN(pojemnosc-E11,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>41770</v>
       </c>
       <c r="B12" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+        <v>2575000</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-      <c r="E12" s="4">
-        <f>IF(C12,103%*D12,99%*(D12-2*l_dzialek*powierzchnia))</f>
-        <v>2575000</v>
-      </c>
-      <c r="F12" s="5">
-        <f>IF(E12&gt;pojemnosc,E12-pojemnosc,0)</f>
-        <v>75000</v>
-      </c>
-      <c r="G12" s="5">
-        <f>IF(WEEKDAY(A12,2)=6,IF(F12&gt;0,0,MIN(pojemnosc-E12,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>41771</v>
       </c>
       <c r="B13" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
+        <v>2575000</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-      <c r="E13" s="4">
-        <f>IF(C13,103%*D13,99%*(D13-2*l_dzialek*powierzchnia))</f>
-        <v>2575000</v>
-      </c>
-      <c r="F13" s="5">
-        <f>IF(E13&gt;pojemnosc,E13-pojemnosc,0)</f>
-        <v>75000</v>
-      </c>
-      <c r="G13" s="5">
-        <f>IF(WEEKDAY(A13,2)=6,IF(F13&gt;0,0,MIN(pojemnosc-E13,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>41772</v>
       </c>
       <c r="B14" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
+        <v>2575000</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-      <c r="E14" s="4">
-        <f>IF(C14,103%*D14,99%*(D14-2*l_dzialek*powierzchnia))</f>
-        <v>2575000</v>
-      </c>
-      <c r="F14" s="5">
-        <f>IF(E14&gt;pojemnosc,E14-pojemnosc,0)</f>
-        <v>75000</v>
-      </c>
-      <c r="G14" s="5">
-        <f>IF(WEEKDAY(A14,2)=6,IF(F14&gt;0,0,MIN(pojemnosc-E14,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>41773</v>
       </c>
       <c r="B15" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+        <v>2376000</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="E15" s="4">
-        <f>IF(C15,103%*D15,99%*(D15-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
         <v>2376000</v>
       </c>
-      <c r="F15" s="5">
-        <f>IF(E15&gt;pojemnosc,E15-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f>IF(WEEKDAY(A15,2)=6,IF(F15&gt;0,0,MIN(pojemnosc-E15,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="2"/>
-        <v>2376000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>41774</v>
       </c>
       <c r="B16" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>2376000</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
+        <v>2253240</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>2376000</v>
-      </c>
-      <c r="E16" s="4">
-        <f>IF(C16,103%*D16,99%*(D16-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="5"/>
         <v>2253240</v>
       </c>
-      <c r="F16" s="5">
-        <f>IF(E16&gt;pojemnosc,E16-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <f>IF(WEEKDAY(A16,2)=6,IF(F16&gt;0,0,MIN(pojemnosc-E16,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="2"/>
-        <v>2253240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>41775</v>
       </c>
       <c r="B17" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>2253240</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+        <v>2320837.2000000002</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>2253240</v>
-      </c>
-      <c r="E17" s="4">
-        <f>IF(C17,103%*D17,99%*(D17-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="5"/>
         <v>2320837.2000000002</v>
       </c>
-      <c r="F17" s="5">
-        <f>IF(E17&gt;pojemnosc,E17-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <f>IF(WEEKDAY(A17,2)=6,IF(F17&gt;0,0,MIN(pojemnosc-E17,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="2"/>
-        <v>2320837.2000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>41776</v>
       </c>
       <c r="B18" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="4"/>
+        <v>2320837.2000000002</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
+        <v>2390462.3160000001</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>2320837.2000000002</v>
-      </c>
-      <c r="E18" s="4">
-        <f>IF(C18,103%*D18,99%*(D18-2*l_dzialek*powierzchnia))</f>
-        <v>2390462.3160000001</v>
-      </c>
-      <c r="F18" s="5">
-        <f>IF(E18&gt;pojemnosc,E18-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <f>IF(WEEKDAY(A18,2)=6,IF(F18&gt;0,0,MIN(pojemnosc-E18,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>109537.68399999989</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>41777</v>
       </c>
       <c r="B19" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
+        <v>2575000</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
-      <c r="E19" s="4">
-        <f>IF(C19,103%*D19,99%*(D19-2*l_dzialek*powierzchnia))</f>
-        <v>2575000</v>
-      </c>
-      <c r="F19" s="5">
-        <f>IF(E19&gt;pojemnosc,E19-pojemnosc,0)</f>
-        <v>75000</v>
-      </c>
-      <c r="G19" s="5">
-        <f>IF(WEEKDAY(A19,2)=6,IF(F19&gt;0,0,MIN(pojemnosc-E19,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>41778</v>
       </c>
       <c r="B20" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
+        <v>2376000</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="E20" s="4">
-        <f>IF(C20,103%*D20,99%*(D20-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="5"/>
         <v>2376000</v>
       </c>
-      <c r="F20" s="5">
-        <f>IF(E20&gt;pojemnosc,E20-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <f>IF(WEEKDAY(A20,2)=6,IF(F20&gt;0,0,MIN(pojemnosc-E20,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="2"/>
-        <v>2376000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>41779</v>
       </c>
       <c r="B21" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="4"/>
+        <v>2376000</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
+        <v>2253240</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>2376000</v>
-      </c>
-      <c r="E21" s="4">
-        <f>IF(C21,103%*D21,99%*(D21-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="5"/>
         <v>2253240</v>
       </c>
-      <c r="F21" s="5">
-        <f>IF(E21&gt;pojemnosc,E21-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <f>IF(WEEKDAY(A21,2)=6,IF(F21&gt;0,0,MIN(pojemnosc-E21,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
-        <v>2253240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>41780</v>
       </c>
       <c r="B22" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="4"/>
+        <v>2253240</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
+        <v>2320837.2000000002</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>2253240</v>
-      </c>
-      <c r="E22" s="4">
-        <f>IF(C22,103%*D22,99%*(D22-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="5"/>
         <v>2320837.2000000002</v>
       </c>
-      <c r="F22" s="5">
-        <f>IF(E22&gt;pojemnosc,E22-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <f>IF(WEEKDAY(A22,2)=6,IF(F22&gt;0,0,MIN(pojemnosc-E22,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="2"/>
-        <v>2320837.2000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>41781</v>
       </c>
       <c r="B23" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="4"/>
+        <v>2320837.2000000002</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
+        <v>2390462.3160000001</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>2320837.2000000002</v>
-      </c>
-      <c r="E23" s="4">
-        <f>IF(C23,103%*D23,99%*(D23-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="5"/>
         <v>2390462.3160000001</v>
       </c>
-      <c r="F23" s="5">
-        <f>IF(E23&gt;pojemnosc,E23-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <f>IF(WEEKDAY(A23,2)=6,IF(F23&gt;0,0,MIN(pojemnosc-E23,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="2"/>
-        <v>2390462.3160000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>41782</v>
       </c>
       <c r="B24" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>2390462.3160000001</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
+        <v>2267557.6928400001</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>2390462.3160000001</v>
-      </c>
-      <c r="E24" s="4">
-        <f>IF(C24,103%*D24,99%*(D24-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="5"/>
         <v>2267557.6928400001</v>
       </c>
-      <c r="F24" s="5">
-        <f>IF(E24&gt;pojemnosc,E24-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <f>IF(WEEKDAY(A24,2)=6,IF(F24&gt;0,0,MIN(pojemnosc-E24,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="2"/>
-        <v>2267557.6928400001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>41783</v>
       </c>
       <c r="B25" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>2267557.6928400001</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
+        <v>2145882.1159116002</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>2267557.6928400001</v>
-      </c>
-      <c r="E25" s="4">
-        <f>IF(C25,103%*D25,99%*(D25-2*l_dzialek*powierzchnia))</f>
-        <v>2145882.1159116002</v>
-      </c>
-      <c r="F25" s="5">
-        <f>IF(E25&gt;pojemnosc,E25-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <f>IF(WEEKDAY(A25,2)=6,IF(F25&gt;0,0,MIN(pojemnosc-E25,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>354117.88408839982</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>41784</v>
       </c>
       <c r="B26" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>2500000</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
+        <v>2376000</v>
+      </c>
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="E26" s="4">
-        <f>IF(C26,103%*D26,99%*(D26-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="5"/>
         <v>2376000</v>
       </c>
-      <c r="F26" s="5">
-        <f>IF(E26&gt;pojemnosc,E26-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <f>IF(WEEKDAY(A26,2)=6,IF(F26&gt;0,0,MIN(pojemnosc-E26,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="2"/>
-        <v>2376000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>41785</v>
       </c>
       <c r="B27" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="4"/>
+        <v>2376000</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
+        <v>2253240</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>2376000</v>
-      </c>
-      <c r="E27" s="4">
-        <f>IF(C27,103%*D27,99%*(D27-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="5"/>
         <v>2253240</v>
       </c>
-      <c r="F27" s="5">
-        <f>IF(E27&gt;pojemnosc,E27-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <f>IF(WEEKDAY(A27,2)=6,IF(F27&gt;0,0,MIN(pojemnosc-E27,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="2"/>
-        <v>2253240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>41786</v>
       </c>
       <c r="B28" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="4"/>
+        <v>2253240</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
+        <v>2131707.6</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>2253240</v>
-      </c>
-      <c r="E28" s="4">
-        <f>IF(C28,103%*D28,99%*(D28-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="5"/>
         <v>2131707.6</v>
       </c>
-      <c r="F28" s="5">
-        <f>IF(E28&gt;pojemnosc,E28-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <f>IF(WEEKDAY(A28,2)=6,IF(F28&gt;0,0,MIN(pojemnosc-E28,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="2"/>
-        <v>2131707.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>41787</v>
       </c>
       <c r="B29" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="4"/>
+        <v>2131707.6</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
+        <v>2195658.8280000002</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>2131707.6</v>
-      </c>
-      <c r="E29" s="4">
-        <f>IF(C29,103%*D29,99%*(D29-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="5"/>
         <v>2195658.8280000002</v>
       </c>
-      <c r="F29" s="5">
-        <f>IF(E29&gt;pojemnosc,E29-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f>IF(WEEKDAY(A29,2)=6,IF(F29&gt;0,0,MIN(pojemnosc-E29,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="2"/>
-        <v>2195658.8280000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>41788</v>
       </c>
       <c r="B30" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="4"/>
+        <v>2195658.8280000002</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
+        <v>2074702.2397200002</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>2195658.8280000002</v>
-      </c>
-      <c r="E30" s="4">
-        <f>IF(C30,103%*D30,99%*(D30-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
         <v>2074702.2397200002</v>
       </c>
-      <c r="F30" s="5">
-        <f>IF(E30&gt;pojemnosc,E30-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <f>IF(WEEKDAY(A30,2)=6,IF(F30&gt;0,0,MIN(pojemnosc-E30,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="2"/>
-        <v>2074702.2397200002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>41789</v>
       </c>
       <c r="B31" s="6">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="4"/>
+        <v>2074702.2397200002</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
+        <v>1954955.2173228001</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>2074702.2397200002</v>
-      </c>
-      <c r="E31" s="4">
-        <f>IF(C31,103%*D31,99%*(D31-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="5"/>
         <v>1954955.2173228001</v>
       </c>
-      <c r="F31" s="5">
-        <f>IF(E31&gt;pojemnosc,E31-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <f>IF(WEEKDAY(A31,2)=6,IF(F31&gt;0,0,MIN(pojemnosc-E31,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="2"/>
-        <v>1954955.2173228001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>41790</v>
       </c>
       <c r="B32" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="4"/>
+        <v>1954955.2173228001</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
+        <v>1836405.6651495721</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>1954955.2173228001</v>
-      </c>
-      <c r="E32" s="4">
-        <f>IF(C32,103%*D32,99%*(D32-2*l_dzialek*powierzchnia))</f>
-        <v>1836405.6651495721</v>
-      </c>
-      <c r="F32" s="5">
-        <f>IF(E32&gt;pojemnosc,E32-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G32" s="5">
-        <f>IF(WEEKDAY(A32,2)=6,IF(F32&gt;0,0,MIN(pojemnosc-E32,500000)),0)</f>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2336405.6651495723</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>41791</v>
       </c>
       <c r="B33" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="4"/>
+        <v>2336405.6651495723</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
+        <v>2214041.6084980764</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>2336405.6651495723</v>
-      </c>
-      <c r="E33" s="4">
-        <f>IF(C33,103%*D33,99%*(D33-2*l_dzialek*powierzchnia))</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="5"/>
         <v>2214041.6084980764</v>
       </c>
-      <c r="F33" s="5">
-        <f>IF(E33&gt;pojemnosc,E33-pojemnosc,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f>IF(WEEKDAY(A33,2)=6,IF(F33&gt;0,0,MIN(pojemnosc-E33,500000)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="2"/>
-        <v>2214041.6084980764</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>41792</v>
       </c>
       <c r="B34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2214041.6084980764</v>
       </c>
       <c r="E34" s="4">
-        <f>IF(C34,103%*D34,99%*(D34-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" ref="E34:E65" si="6">IF(C34,103%*D34,99%*(D34-2*l_dzialek*powierzchnia))</f>
         <v>2092901.1924130956</v>
       </c>
       <c r="F34" s="5">
-        <f>IF(E34&gt;pojemnosc,E34-pojemnosc,0)</f>
+        <f t="shared" ref="F34:F65" si="7">IF(E34&gt;pojemnosc,E34-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f>IF(WEEKDAY(A34,2)=6,IF(F34&gt;0,0,MIN(pojemnosc-E34,500000)),0)</f>
+        <f t="shared" ref="G34:G65" si="8">IF(WEEKDAY(A34,2)=6,IF(F34&gt;0,0,MIN(pojemnosc-E34,500000)),0)</f>
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2092901.1924130956</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>41793</v>
       </c>
       <c r="B35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2092901.1924130956</v>
       </c>
       <c r="E35" s="4">
-        <f>IF(C35,103%*D35,99%*(D35-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1972972.1804889645</v>
       </c>
       <c r="F35" s="5">
-        <f>IF(E35&gt;pojemnosc,E35-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f>IF(WEEKDAY(A35,2)=6,IF(F35&gt;0,0,MIN(pojemnosc-E35,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1972972.1804889645</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>41794</v>
       </c>
       <c r="B36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1972972.1804889645</v>
       </c>
       <c r="E36" s="4">
-        <f>IF(C36,103%*D36,99%*(D36-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2032161.3459036336</v>
       </c>
       <c r="F36" s="5">
-        <f>IF(E36&gt;pojemnosc,E36-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f>IF(WEEKDAY(A36,2)=6,IF(F36&gt;0,0,MIN(pojemnosc-E36,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2032161.3459036336</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>41795</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2032161.3459036336</v>
       </c>
       <c r="E37" s="4">
-        <f>IF(C37,103%*D37,99%*(D37-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2093126.1862807428</v>
       </c>
       <c r="F37" s="5">
-        <f>IF(E37&gt;pojemnosc,E37-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f>IF(WEEKDAY(A37,2)=6,IF(F37&gt;0,0,MIN(pojemnosc-E37,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2093126.1862807428</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>41796</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2093126.1862807428</v>
       </c>
       <c r="E38" s="4">
-        <f>IF(C38,103%*D38,99%*(D38-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2155919.9718691651</v>
       </c>
       <c r="F38" s="5">
-        <f>IF(E38&gt;pojemnosc,E38-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f>IF(WEEKDAY(A38,2)=6,IF(F38&gt;0,0,MIN(pojemnosc-E38,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2155919.9718691651</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>41797</v>
       </c>
       <c r="B39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2155919.9718691651</v>
       </c>
       <c r="E39" s="4">
-        <f>IF(C39,103%*D39,99%*(D39-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2220597.5710252402</v>
       </c>
       <c r="F39" s="5">
-        <f>IF(E39&gt;pojemnosc,E39-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <f>IF(WEEKDAY(A39,2)=6,IF(F39&gt;0,0,MIN(pojemnosc-E39,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>279402.42897475976</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>41798</v>
       </c>
       <c r="B40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="E40" s="4">
-        <f>IF(C40,103%*D40,99%*(D40-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2575000</v>
       </c>
       <c r="F40" s="5">
-        <f>IF(E40&gt;pojemnosc,E40-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>75000</v>
       </c>
       <c r="G40" s="5">
-        <f>IF(WEEKDAY(A40,2)=6,IF(F40&gt;0,0,MIN(pojemnosc-E40,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>41799</v>
       </c>
       <c r="B41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="E41" s="4">
-        <f>IF(C41,103%*D41,99%*(D41-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2575000</v>
       </c>
       <c r="F41" s="5">
-        <f>IF(E41&gt;pojemnosc,E41-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>75000</v>
       </c>
       <c r="G41" s="5">
-        <f>IF(WEEKDAY(A41,2)=6,IF(F41&gt;0,0,MIN(pojemnosc-E41,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>41800</v>
       </c>
       <c r="B42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="E42" s="4">
-        <f>IF(C42,103%*D42,99%*(D42-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2575000</v>
       </c>
       <c r="F42" s="5">
-        <f>IF(E42&gt;pojemnosc,E42-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>75000</v>
       </c>
       <c r="G42" s="5">
-        <f>IF(WEEKDAY(A42,2)=6,IF(F42&gt;0,0,MIN(pojemnosc-E42,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41801</v>
       </c>
       <c r="B43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="E43" s="4">
-        <f>IF(C43,103%*D43,99%*(D43-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2575000</v>
       </c>
       <c r="F43" s="5">
-        <f>IF(E43&gt;pojemnosc,E43-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>75000</v>
       </c>
       <c r="G43" s="5">
-        <f>IF(WEEKDAY(A43,2)=6,IF(F43&gt;0,0,MIN(pojemnosc-E43,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>41802</v>
       </c>
       <c r="B44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="E44" s="4">
-        <f>IF(C44,103%*D44,99%*(D44-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2376000</v>
       </c>
       <c r="F44" s="5">
-        <f>IF(E44&gt;pojemnosc,E44-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G44" s="5">
-        <f>IF(WEEKDAY(A44,2)=6,IF(F44&gt;0,0,MIN(pojemnosc-E44,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2376000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>41803</v>
       </c>
       <c r="B45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2376000</v>
       </c>
       <c r="E45" s="4">
-        <f>IF(C45,103%*D45,99%*(D45-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2253240</v>
       </c>
       <c r="F45" s="5">
-        <f>IF(E45&gt;pojemnosc,E45-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G45" s="5">
-        <f>IF(WEEKDAY(A45,2)=6,IF(F45&gt;0,0,MIN(pojemnosc-E45,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2253240</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>41804</v>
       </c>
       <c r="B46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2253240</v>
       </c>
       <c r="E46" s="4">
-        <f>IF(C46,103%*D46,99%*(D46-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2131707.6</v>
       </c>
       <c r="F46" s="5">
-        <f>IF(E46&gt;pojemnosc,E46-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <f>IF(WEEKDAY(A46,2)=6,IF(F46&gt;0,0,MIN(pojemnosc-E46,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>368292.39999999991</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>41805</v>
       </c>
       <c r="B47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="E47" s="4">
-        <f>IF(C47,103%*D47,99%*(D47-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2376000</v>
       </c>
       <c r="F47" s="5">
-        <f>IF(E47&gt;pojemnosc,E47-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G47" s="5">
-        <f>IF(WEEKDAY(A47,2)=6,IF(F47&gt;0,0,MIN(pojemnosc-E47,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2376000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>41806</v>
       </c>
       <c r="B48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2376000</v>
       </c>
       <c r="E48" s="4">
-        <f>IF(C48,103%*D48,99%*(D48-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2447280</v>
       </c>
       <c r="F48" s="5">
-        <f>IF(E48&gt;pojemnosc,E48-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G48" s="5">
-        <f>IF(WEEKDAY(A48,2)=6,IF(F48&gt;0,0,MIN(pojemnosc-E48,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2447280</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>41807</v>
       </c>
       <c r="B49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2447280</v>
       </c>
       <c r="E49" s="4">
-        <f>IF(C49,103%*D49,99%*(D49-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2323807.2000000002</v>
       </c>
       <c r="F49" s="5">
-        <f>IF(E49&gt;pojemnosc,E49-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <f>IF(WEEKDAY(A49,2)=6,IF(F49&gt;0,0,MIN(pojemnosc-E49,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2323807.2000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>41808</v>
       </c>
       <c r="B50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2323807.2000000002</v>
       </c>
       <c r="E50" s="4">
-        <f>IF(C50,103%*D50,99%*(D50-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2201569.128</v>
       </c>
       <c r="F50" s="5">
-        <f>IF(E50&gt;pojemnosc,E50-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <f>IF(WEEKDAY(A50,2)=6,IF(F50&gt;0,0,MIN(pojemnosc-E50,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2201569.128</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>41809</v>
       </c>
       <c r="B51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2201569.128</v>
       </c>
       <c r="E51" s="4">
-        <f>IF(C51,103%*D51,99%*(D51-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2080553.4367200001</v>
       </c>
       <c r="F51" s="5">
-        <f>IF(E51&gt;pojemnosc,E51-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G51" s="5">
-        <f>IF(WEEKDAY(A51,2)=6,IF(F51&gt;0,0,MIN(pojemnosc-E51,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2080553.4367200001</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>41810</v>
       </c>
       <c r="B52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2080553.4367200001</v>
       </c>
       <c r="E52" s="4">
-        <f>IF(C52,103%*D52,99%*(D52-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1960747.9023528001</v>
       </c>
       <c r="F52" s="5">
-        <f>IF(E52&gt;pojemnosc,E52-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <f>IF(WEEKDAY(A52,2)=6,IF(F52&gt;0,0,MIN(pojemnosc-E52,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1960747.9023528001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>41811</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1960747.9023528001</v>
       </c>
       <c r="E53" s="4">
-        <f>IF(C53,103%*D53,99%*(D53-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1842140.4233292721</v>
       </c>
       <c r="F53" s="5">
-        <f>IF(E53&gt;pojemnosc,E53-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G53" s="5">
-        <f>IF(WEEKDAY(A53,2)=6,IF(F53&gt;0,0,MIN(pojemnosc-E53,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>500000</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2342140.4233292723</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>41812</v>
       </c>
       <c r="B54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2342140.4233292723</v>
       </c>
       <c r="E54" s="4">
-        <f>IF(C54,103%*D54,99%*(D54-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2219719.0190959796</v>
       </c>
       <c r="F54" s="5">
-        <f>IF(E54&gt;pojemnosc,E54-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G54" s="5">
-        <f>IF(WEEKDAY(A54,2)=6,IF(F54&gt;0,0,MIN(pojemnosc-E54,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2219719.0190959796</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>41813</v>
       </c>
       <c r="B55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2219719.0190959796</v>
       </c>
       <c r="E55" s="4">
-        <f>IF(C55,103%*D55,99%*(D55-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2098521.8289050199</v>
       </c>
       <c r="F55" s="5">
-        <f>IF(E55&gt;pojemnosc,E55-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G55" s="5">
-        <f>IF(WEEKDAY(A55,2)=6,IF(F55&gt;0,0,MIN(pojemnosc-E55,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2098521.8289050199</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>41814</v>
       </c>
       <c r="B56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2098521.8289050199</v>
       </c>
       <c r="E56" s="4">
-        <f>IF(C56,103%*D56,99%*(D56-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1978536.6106159696</v>
       </c>
       <c r="F56" s="5">
-        <f>IF(E56&gt;pojemnosc,E56-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <f>IF(WEEKDAY(A56,2)=6,IF(F56&gt;0,0,MIN(pojemnosc-E56,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1978536.6106159696</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>41815</v>
       </c>
       <c r="B57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1978536.6106159696</v>
       </c>
       <c r="E57" s="4">
-        <f>IF(C57,103%*D57,99%*(D57-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1859751.2445098099</v>
       </c>
       <c r="F57" s="5">
-        <f>IF(E57&gt;pojemnosc,E57-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <f>IF(WEEKDAY(A57,2)=6,IF(F57&gt;0,0,MIN(pojemnosc-E57,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1859751.2445098099</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>41816</v>
       </c>
       <c r="B58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1859751.2445098099</v>
       </c>
       <c r="E58" s="4">
-        <f>IF(C58,103%*D58,99%*(D58-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1915543.7818451042</v>
       </c>
       <c r="F58" s="5">
-        <f>IF(E58&gt;pojemnosc,E58-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G58" s="5">
-        <f>IF(WEEKDAY(A58,2)=6,IF(F58&gt;0,0,MIN(pojemnosc-E58,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1915543.7818451042</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>41817</v>
       </c>
       <c r="B59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1915543.7818451042</v>
       </c>
       <c r="E59" s="4">
-        <f>IF(C59,103%*D59,99%*(D59-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1797388.3440266531</v>
       </c>
       <c r="F59" s="5">
-        <f>IF(E59&gt;pojemnosc,E59-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G59" s="5">
-        <f>IF(WEEKDAY(A59,2)=6,IF(F59&gt;0,0,MIN(pojemnosc-E59,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1797388.3440266531</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>41818</v>
       </c>
       <c r="B60" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1797388.3440266531</v>
       </c>
       <c r="E60" s="4">
-        <f>IF(C60,103%*D60,99%*(D60-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1851309.9943474527</v>
       </c>
       <c r="F60" s="5">
-        <f>IF(E60&gt;pojemnosc,E60-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G60" s="5">
-        <f>IF(WEEKDAY(A60,2)=6,IF(F60&gt;0,0,MIN(pojemnosc-E60,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>500000</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2351309.9943474527</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>41819</v>
       </c>
       <c r="B61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2351309.9943474527</v>
       </c>
       <c r="E61" s="4">
-        <f>IF(C61,103%*D61,99%*(D61-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2228796.8944039783</v>
       </c>
       <c r="F61" s="5">
-        <f>IF(E61&gt;pojemnosc,E61-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G61" s="5">
-        <f>IF(WEEKDAY(A61,2)=6,IF(F61&gt;0,0,MIN(pojemnosc-E61,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2228796.8944039783</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>41820</v>
       </c>
       <c r="B62" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2228796.8944039783</v>
       </c>
       <c r="E62" s="4">
-        <f>IF(C62,103%*D62,99%*(D62-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2295660.8012360977</v>
       </c>
       <c r="F62" s="5">
-        <f>IF(E62&gt;pojemnosc,E62-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G62" s="5">
-        <f>IF(WEEKDAY(A62,2)=6,IF(F62&gt;0,0,MIN(pojemnosc-E62,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2295660.8012360977</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>41821</v>
       </c>
       <c r="B63" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2295660.8012360977</v>
       </c>
       <c r="E63" s="4">
-        <f>IF(C63,103%*D63,99%*(D63-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2173704.1932237367</v>
       </c>
       <c r="F63" s="5">
-        <f>IF(E63&gt;pojemnosc,E63-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G63" s="5">
-        <f>IF(WEEKDAY(A63,2)=6,IF(F63&gt;0,0,MIN(pojemnosc-E63,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2173704.1932237367</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>41822</v>
       </c>
       <c r="B64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2173704.1932237367</v>
       </c>
       <c r="E64" s="4">
-        <f>IF(C64,103%*D64,99%*(D64-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>2052967.1512914994</v>
       </c>
       <c r="F64" s="5">
-        <f>IF(E64&gt;pojemnosc,E64-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G64" s="5">
-        <f>IF(WEEKDAY(A64,2)=6,IF(F64&gt;0,0,MIN(pojemnosc-E64,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2052967.1512914994</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>41823</v>
       </c>
       <c r="B65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2052967.1512914994</v>
       </c>
       <c r="E65" s="4">
-        <f>IF(C65,103%*D65,99%*(D65-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="6"/>
         <v>1933437.4797785843</v>
       </c>
       <c r="F65" s="5">
-        <f>IF(E65&gt;pojemnosc,E65-pojemnosc,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G65" s="5">
-        <f>IF(WEEKDAY(A65,2)=6,IF(F65&gt;0,0,MIN(pojemnosc-E65,500000)),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1933437.4797785843</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>41824</v>
       </c>
       <c r="B66" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1933437.4797785843</v>
       </c>
       <c r="E66" s="4">
-        <f>IF(C66,103%*D66,99%*(D66-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" ref="E66:E97" si="9">IF(C66,103%*D66,99%*(D66-2*l_dzialek*powierzchnia))</f>
         <v>1815103.1049807984</v>
       </c>
       <c r="F66" s="5">
-        <f>IF(E66&gt;pojemnosc,E66-pojemnosc,0)</f>
+        <f t="shared" ref="F66:F97" si="10">IF(E66&gt;pojemnosc,E66-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <f>IF(WEEKDAY(A66,2)=6,IF(F66&gt;0,0,MIN(pojemnosc-E66,500000)),0)</f>
+        <f t="shared" ref="G66:G97" si="11">IF(WEEKDAY(A66,2)=6,IF(F66&gt;0,0,MIN(pojemnosc-E66,500000)),0)</f>
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1815103.1049807984</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>41825</v>
       </c>
       <c r="B67" s="6">
-        <f t="shared" ref="B67:B130" si="3">WEEKDAY(A67,2)</f>
+        <f t="shared" ref="B67:B130" si="12">WEEKDAY(A67,2)</f>
         <v>6</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1815103.1049807984</v>
       </c>
       <c r="E67" s="4">
-        <f>IF(C67,103%*D67,99%*(D67-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>1697952.0739309904</v>
       </c>
       <c r="F67" s="5">
-        <f>IF(E67&gt;pojemnosc,E67-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G67" s="5">
-        <f>IF(WEEKDAY(A67,2)=6,IF(F67&gt;0,0,MIN(pojemnosc-E67,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>500000</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2197952.0739309904</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>41826</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" ref="D68:D131" si="4">H67</f>
+        <f t="shared" ref="D68:D131" si="13">H67</f>
         <v>2197952.0739309904</v>
       </c>
       <c r="E68" s="4">
-        <f>IF(C68,103%*D68,99%*(D68-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2076972.5531916805</v>
       </c>
       <c r="F68" s="5">
-        <f>IF(E68&gt;pojemnosc,E68-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G68" s="5">
-        <f>IF(WEEKDAY(A68,2)=6,IF(F68&gt;0,0,MIN(pojemnosc-E68,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H131" si="5">E68-F68+G68</f>
+        <f t="shared" ref="H68:H131" si="14">E68-F68+G68</f>
         <v>2076972.5531916805</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>41827</v>
       </c>
       <c r="B69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2076972.5531916805</v>
       </c>
       <c r="E69" s="4">
-        <f>IF(C69,103%*D69,99%*(D69-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>1957202.8276597636</v>
       </c>
       <c r="F69" s="5">
-        <f>IF(E69&gt;pojemnosc,E69-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G69" s="5">
-        <f>IF(WEEKDAY(A69,2)=6,IF(F69&gt;0,0,MIN(pojemnosc-E69,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1957202.8276597636</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>41828</v>
       </c>
       <c r="B70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1957202.8276597636</v>
       </c>
       <c r="E70" s="4">
-        <f>IF(C70,103%*D70,99%*(D70-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2015918.9124895565</v>
       </c>
       <c r="F70" s="5">
-        <f>IF(E70&gt;pojemnosc,E70-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <f>IF(WEEKDAY(A70,2)=6,IF(F70&gt;0,0,MIN(pojemnosc-E70,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2015918.9124895565</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>41829</v>
       </c>
       <c r="B71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2015918.9124895565</v>
       </c>
       <c r="E71" s="4">
-        <f>IF(C71,103%*D71,99%*(D71-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2076396.4798642432</v>
       </c>
       <c r="F71" s="5">
-        <f>IF(E71&gt;pojemnosc,E71-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G71" s="5">
-        <f>IF(WEEKDAY(A71,2)=6,IF(F71&gt;0,0,MIN(pojemnosc-E71,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2076396.4798642432</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>41830</v>
       </c>
       <c r="B72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2076396.4798642432</v>
       </c>
       <c r="E72" s="4">
-        <f>IF(C72,103%*D72,99%*(D72-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2138688.3742601704</v>
       </c>
       <c r="F72" s="5">
-        <f>IF(E72&gt;pojemnosc,E72-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G72" s="5">
-        <f>IF(WEEKDAY(A72,2)=6,IF(F72&gt;0,0,MIN(pojemnosc-E72,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2138688.3742601704</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>41831</v>
       </c>
       <c r="B73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2138688.3742601704</v>
       </c>
       <c r="E73" s="4">
-        <f>IF(C73,103%*D73,99%*(D73-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2202849.0254879757</v>
       </c>
       <c r="F73" s="5">
-        <f>IF(E73&gt;pojemnosc,E73-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G73" s="5">
-        <f>IF(WEEKDAY(A73,2)=6,IF(F73&gt;0,0,MIN(pojemnosc-E73,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2202849.0254879757</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>41832</v>
       </c>
       <c r="B74" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2202849.0254879757</v>
       </c>
       <c r="E74" s="4">
-        <f>IF(C74,103%*D74,99%*(D74-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2268934.496252615</v>
       </c>
       <c r="F74" s="5">
-        <f>IF(E74&gt;pojemnosc,E74-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G74" s="5">
-        <f>IF(WEEKDAY(A74,2)=6,IF(F74&gt;0,0,MIN(pojemnosc-E74,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>231065.503747385</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>41833</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E75" s="4">
-        <f>IF(C75,103%*D75,99%*(D75-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2376000</v>
       </c>
       <c r="F75" s="5">
-        <f>IF(E75&gt;pojemnosc,E75-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G75" s="5">
-        <f>IF(WEEKDAY(A75,2)=6,IF(F75&gt;0,0,MIN(pojemnosc-E75,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2376000</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>41834</v>
       </c>
       <c r="B76" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2376000</v>
       </c>
       <c r="E76" s="4">
-        <f>IF(C76,103%*D76,99%*(D76-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2253240</v>
       </c>
       <c r="F76" s="5">
-        <f>IF(E76&gt;pojemnosc,E76-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G76" s="5">
-        <f>IF(WEEKDAY(A76,2)=6,IF(F76&gt;0,0,MIN(pojemnosc-E76,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2253240</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>41835</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2253240</v>
       </c>
       <c r="E77" s="4">
-        <f>IF(C77,103%*D77,99%*(D77-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2131707.6</v>
       </c>
       <c r="F77" s="5">
-        <f>IF(E77&gt;pojemnosc,E77-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G77" s="5">
-        <f>IF(WEEKDAY(A77,2)=6,IF(F77&gt;0,0,MIN(pojemnosc-E77,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2131707.6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>41836</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2131707.6</v>
       </c>
       <c r="E78" s="4">
-        <f>IF(C78,103%*D78,99%*(D78-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2195658.8280000002</v>
       </c>
       <c r="F78" s="5">
-        <f>IF(E78&gt;pojemnosc,E78-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G78" s="5">
-        <f>IF(WEEKDAY(A78,2)=6,IF(F78&gt;0,0,MIN(pojemnosc-E78,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2195658.8280000002</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>41837</v>
       </c>
       <c r="B79" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2195658.8280000002</v>
       </c>
       <c r="E79" s="4">
-        <f>IF(C79,103%*D79,99%*(D79-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2261528.5928400001</v>
       </c>
       <c r="F79" s="5">
-        <f>IF(E79&gt;pojemnosc,E79-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G79" s="5">
-        <f>IF(WEEKDAY(A79,2)=6,IF(F79&gt;0,0,MIN(pojemnosc-E79,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2261528.5928400001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>41838</v>
       </c>
       <c r="B80" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2261528.5928400001</v>
       </c>
       <c r="E80" s="4">
-        <f>IF(C80,103%*D80,99%*(D80-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2329374.4506252003</v>
       </c>
       <c r="F80" s="5">
-        <f>IF(E80&gt;pojemnosc,E80-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G80" s="5">
-        <f>IF(WEEKDAY(A80,2)=6,IF(F80&gt;0,0,MIN(pojemnosc-E80,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2329374.4506252003</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>41839</v>
       </c>
       <c r="B81" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2329374.4506252003</v>
       </c>
       <c r="E81" s="4">
-        <f>IF(C81,103%*D81,99%*(D81-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2399255.6841439563</v>
       </c>
       <c r="F81" s="5">
-        <f>IF(E81&gt;pojemnosc,E81-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G81" s="5">
-        <f>IF(WEEKDAY(A81,2)=6,IF(F81&gt;0,0,MIN(pojemnosc-E81,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>100744.31585604372</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>41840</v>
       </c>
       <c r="B82" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E82" s="4">
-        <f>IF(C82,103%*D82,99%*(D82-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2575000</v>
       </c>
       <c r="F82" s="5">
-        <f>IF(E82&gt;pojemnosc,E82-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>75000</v>
       </c>
       <c r="G82" s="5">
-        <f>IF(WEEKDAY(A82,2)=6,IF(F82&gt;0,0,MIN(pojemnosc-E82,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>41841</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E83" s="4">
-        <f>IF(C83,103%*D83,99%*(D83-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2575000</v>
       </c>
       <c r="F83" s="5">
-        <f>IF(E83&gt;pojemnosc,E83-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>75000</v>
       </c>
       <c r="G83" s="5">
-        <f>IF(WEEKDAY(A83,2)=6,IF(F83&gt;0,0,MIN(pojemnosc-E83,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>41842</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E84" s="4">
-        <f>IF(C84,103%*D84,99%*(D84-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2376000</v>
       </c>
       <c r="F84" s="5">
-        <f>IF(E84&gt;pojemnosc,E84-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G84" s="5">
-        <f>IF(WEEKDAY(A84,2)=6,IF(F84&gt;0,0,MIN(pojemnosc-E84,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2376000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>41843</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2376000</v>
       </c>
       <c r="E85" s="4">
-        <f>IF(C85,103%*D85,99%*(D85-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2253240</v>
       </c>
       <c r="F85" s="5">
-        <f>IF(E85&gt;pojemnosc,E85-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G85" s="5">
-        <f>IF(WEEKDAY(A85,2)=6,IF(F85&gt;0,0,MIN(pojemnosc-E85,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2253240</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>41844</v>
       </c>
       <c r="B86" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2253240</v>
       </c>
       <c r="E86" s="4">
-        <f>IF(C86,103%*D86,99%*(D86-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2131707.6</v>
       </c>
       <c r="F86" s="5">
-        <f>IF(E86&gt;pojemnosc,E86-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G86" s="5">
-        <f>IF(WEEKDAY(A86,2)=6,IF(F86&gt;0,0,MIN(pojemnosc-E86,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2131707.6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>41845</v>
       </c>
       <c r="B87" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2131707.6</v>
       </c>
       <c r="E87" s="4">
-        <f>IF(C87,103%*D87,99%*(D87-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2011390.524</v>
       </c>
       <c r="F87" s="5">
-        <f>IF(E87&gt;pojemnosc,E87-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G87" s="5">
-        <f>IF(WEEKDAY(A87,2)=6,IF(F87&gt;0,0,MIN(pojemnosc-E87,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2011390.524</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>41846</v>
       </c>
       <c r="B88" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2011390.524</v>
       </c>
       <c r="E88" s="4">
-        <f>IF(C88,103%*D88,99%*(D88-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>1892276.61876</v>
       </c>
       <c r="F88" s="5">
-        <f>IF(E88&gt;pojemnosc,E88-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G88" s="5">
-        <f>IF(WEEKDAY(A88,2)=6,IF(F88&gt;0,0,MIN(pojemnosc-E88,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>500000</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2392276.61876</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>41847</v>
       </c>
       <c r="B89" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2392276.61876</v>
       </c>
       <c r="E89" s="4">
-        <f>IF(C89,103%*D89,99%*(D89-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2269353.8525724001</v>
       </c>
       <c r="F89" s="5">
-        <f>IF(E89&gt;pojemnosc,E89-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G89" s="5">
-        <f>IF(WEEKDAY(A89,2)=6,IF(F89&gt;0,0,MIN(pojemnosc-E89,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2269353.8525724001</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>41848</v>
       </c>
       <c r="B90" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2269353.8525724001</v>
       </c>
       <c r="E90" s="4">
-        <f>IF(C90,103%*D90,99%*(D90-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2337434.4681495721</v>
       </c>
       <c r="F90" s="5">
-        <f>IF(E90&gt;pojemnosc,E90-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G90" s="5">
-        <f>IF(WEEKDAY(A90,2)=6,IF(F90&gt;0,0,MIN(pojemnosc-E90,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2337434.4681495721</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>41849</v>
       </c>
       <c r="B91" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2337434.4681495721</v>
       </c>
       <c r="E91" s="4">
-        <f>IF(C91,103%*D91,99%*(D91-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2407557.5021940595</v>
       </c>
       <c r="F91" s="5">
-        <f>IF(E91&gt;pojemnosc,E91-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G91" s="5">
-        <f>IF(WEEKDAY(A91,2)=6,IF(F91&gt;0,0,MIN(pojemnosc-E91,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2407557.5021940595</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>41850</v>
       </c>
       <c r="B92" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2407557.5021940595</v>
       </c>
       <c r="E92" s="4">
-        <f>IF(C92,103%*D92,99%*(D92-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2284481.9271721188</v>
       </c>
       <c r="F92" s="5">
-        <f>IF(E92&gt;pojemnosc,E92-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G92" s="5">
-        <f>IF(WEEKDAY(A92,2)=6,IF(F92&gt;0,0,MIN(pojemnosc-E92,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2284481.9271721188</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>41851</v>
       </c>
       <c r="B93" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2284481.9271721188</v>
       </c>
       <c r="E93" s="4">
-        <f>IF(C93,103%*D93,99%*(D93-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2162637.1079003974</v>
       </c>
       <c r="F93" s="5">
-        <f>IF(E93&gt;pojemnosc,E93-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G93" s="5">
-        <f>IF(WEEKDAY(A93,2)=6,IF(F93&gt;0,0,MIN(pojemnosc-E93,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2162637.1079003974</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>41852</v>
       </c>
       <c r="B94" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2162637.1079003974</v>
       </c>
       <c r="E94" s="4">
-        <f>IF(C94,103%*D94,99%*(D94-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2042010.7368213935</v>
       </c>
       <c r="F94" s="5">
-        <f>IF(E94&gt;pojemnosc,E94-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G94" s="5">
-        <f>IF(WEEKDAY(A94,2)=6,IF(F94&gt;0,0,MIN(pojemnosc-E94,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2042010.7368213935</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>41853</v>
       </c>
       <c r="B95" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2042010.7368213935</v>
       </c>
       <c r="E95" s="4">
-        <f>IF(C95,103%*D95,99%*(D95-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>1922590.6294531794</v>
       </c>
       <c r="F95" s="5">
-        <f>IF(E95&gt;pojemnosc,E95-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G95" s="5">
-        <f>IF(WEEKDAY(A95,2)=6,IF(F95&gt;0,0,MIN(pojemnosc-E95,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>500000</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2422590.6294531794</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>41854</v>
       </c>
       <c r="B96" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2422590.6294531794</v>
       </c>
       <c r="E96" s="4">
-        <f>IF(C96,103%*D96,99%*(D96-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2299364.7231586478</v>
       </c>
       <c r="F96" s="5">
-        <f>IF(E96&gt;pojemnosc,E96-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G96" s="5">
-        <f>IF(WEEKDAY(A96,2)=6,IF(F96&gt;0,0,MIN(pojemnosc-E96,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2299364.7231586478</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>41855</v>
       </c>
       <c r="B97" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2299364.7231586478</v>
       </c>
       <c r="E97" s="4">
-        <f>IF(C97,103%*D97,99%*(D97-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="9"/>
         <v>2177371.0759270615</v>
       </c>
       <c r="F97" s="5">
-        <f>IF(E97&gt;pojemnosc,E97-pojemnosc,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G97" s="5">
-        <f>IF(WEEKDAY(A97,2)=6,IF(F97&gt;0,0,MIN(pojemnosc-E97,500000)),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2177371.0759270615</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>41856</v>
       </c>
       <c r="B98" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2177371.0759270615</v>
       </c>
       <c r="E98" s="4">
-        <f>IF(C98,103%*D98,99%*(D98-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" ref="E98:E129" si="15">IF(C98,103%*D98,99%*(D98-2*l_dzialek*powierzchnia))</f>
         <v>2242692.2082048734</v>
       </c>
       <c r="F98" s="5">
-        <f>IF(E98&gt;pojemnosc,E98-pojemnosc,0)</f>
+        <f t="shared" ref="F98:F129" si="16">IF(E98&gt;pojemnosc,E98-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G98" s="5">
-        <f>IF(WEEKDAY(A98,2)=6,IF(F98&gt;0,0,MIN(pojemnosc-E98,500000)),0)</f>
+        <f t="shared" ref="G98:G129" si="17">IF(WEEKDAY(A98,2)=6,IF(F98&gt;0,0,MIN(pojemnosc-E98,500000)),0)</f>
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2242692.2082048734</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>41857</v>
       </c>
       <c r="B99" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2242692.2082048734</v>
       </c>
       <c r="E99" s="4">
-        <f>IF(C99,103%*D99,99%*(D99-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2121265.2861228245</v>
       </c>
       <c r="F99" s="5">
-        <f>IF(E99&gt;pojemnosc,E99-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G99" s="5">
-        <f>IF(WEEKDAY(A99,2)=6,IF(F99&gt;0,0,MIN(pojemnosc-E99,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2121265.2861228245</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>41858</v>
       </c>
       <c r="B100" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C100" s="2">
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2121265.2861228245</v>
       </c>
       <c r="E100" s="4">
-        <f>IF(C100,103%*D100,99%*(D100-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2184903.2447065092</v>
       </c>
       <c r="F100" s="5">
-        <f>IF(E100&gt;pojemnosc,E100-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G100" s="5">
-        <f>IF(WEEKDAY(A100,2)=6,IF(F100&gt;0,0,MIN(pojemnosc-E100,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2184903.2447065092</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>41859</v>
       </c>
       <c r="B101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C101" s="2">
         <v>1</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2184903.2447065092</v>
       </c>
       <c r="E101" s="4">
-        <f>IF(C101,103%*D101,99%*(D101-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2250450.3420477044</v>
       </c>
       <c r="F101" s="5">
-        <f>IF(E101&gt;pojemnosc,E101-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G101" s="5">
-        <f>IF(WEEKDAY(A101,2)=6,IF(F101&gt;0,0,MIN(pojemnosc-E101,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2250450.3420477044</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>41860</v>
       </c>
       <c r="B102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2250450.3420477044</v>
       </c>
       <c r="E102" s="4">
-        <f>IF(C102,103%*D102,99%*(D102-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2128945.8386272271</v>
       </c>
       <c r="F102" s="5">
-        <f>IF(E102&gt;pojemnosc,E102-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G102" s="5">
-        <f>IF(WEEKDAY(A102,2)=6,IF(F102&gt;0,0,MIN(pojemnosc-E102,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>371054.16137277288</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>41861</v>
       </c>
       <c r="B103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E103" s="4">
-        <f>IF(C103,103%*D103,99%*(D103-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2376000</v>
       </c>
       <c r="F103" s="5">
-        <f>IF(E103&gt;pojemnosc,E103-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G103" s="5">
-        <f>IF(WEEKDAY(A103,2)=6,IF(F103&gt;0,0,MIN(pojemnosc-E103,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2376000</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>41862</v>
       </c>
       <c r="B104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2376000</v>
       </c>
       <c r="E104" s="4">
-        <f>IF(C104,103%*D104,99%*(D104-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2253240</v>
       </c>
       <c r="F104" s="5">
-        <f>IF(E104&gt;pojemnosc,E104-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G104" s="5">
-        <f>IF(WEEKDAY(A104,2)=6,IF(F104&gt;0,0,MIN(pojemnosc-E104,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2253240</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>41863</v>
       </c>
       <c r="B105" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2253240</v>
       </c>
       <c r="E105" s="4">
-        <f>IF(C105,103%*D105,99%*(D105-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2131707.6</v>
       </c>
       <c r="F105" s="5">
-        <f>IF(E105&gt;pojemnosc,E105-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G105" s="5">
-        <f>IF(WEEKDAY(A105,2)=6,IF(F105&gt;0,0,MIN(pojemnosc-E105,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2131707.6</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>41864</v>
       </c>
       <c r="B106" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2131707.6</v>
       </c>
       <c r="E106" s="4">
-        <f>IF(C106,103%*D106,99%*(D106-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2195658.8280000002</v>
       </c>
       <c r="F106" s="5">
-        <f>IF(E106&gt;pojemnosc,E106-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G106" s="5">
-        <f>IF(WEEKDAY(A106,2)=6,IF(F106&gt;0,0,MIN(pojemnosc-E106,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2195658.8280000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>41865</v>
       </c>
       <c r="B107" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2195658.8280000002</v>
       </c>
       <c r="E107" s="4">
-        <f>IF(C107,103%*D107,99%*(D107-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2074702.2397200002</v>
       </c>
       <c r="F107" s="5">
-        <f>IF(E107&gt;pojemnosc,E107-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G107" s="5">
-        <f>IF(WEEKDAY(A107,2)=6,IF(F107&gt;0,0,MIN(pojemnosc-E107,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2074702.2397200002</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>41866</v>
       </c>
       <c r="B108" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C108" s="2">
         <v>1</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2074702.2397200002</v>
       </c>
       <c r="E108" s="4">
-        <f>IF(C108,103%*D108,99%*(D108-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2136943.3069116003</v>
       </c>
       <c r="F108" s="5">
-        <f>IF(E108&gt;pojemnosc,E108-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G108" s="5">
-        <f>IF(WEEKDAY(A108,2)=6,IF(F108&gt;0,0,MIN(pojemnosc-E108,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2136943.3069116003</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>41867</v>
       </c>
       <c r="B109" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C109" s="2">
         <v>1</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2136943.3069116003</v>
       </c>
       <c r="E109" s="4">
-        <f>IF(C109,103%*D109,99%*(D109-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2201051.6061189482</v>
       </c>
       <c r="F109" s="5">
-        <f>IF(E109&gt;pojemnosc,E109-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G109" s="5">
-        <f>IF(WEEKDAY(A109,2)=6,IF(F109&gt;0,0,MIN(pojemnosc-E109,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>298948.3938810518</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>41868</v>
       </c>
       <c r="B110" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C110" s="2">
         <v>1</v>
       </c>
       <c r="D110" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E110" s="4">
-        <f>IF(C110,103%*D110,99%*(D110-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2575000</v>
       </c>
       <c r="F110" s="5">
-        <f>IF(E110&gt;pojemnosc,E110-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>75000</v>
       </c>
       <c r="G110" s="5">
-        <f>IF(WEEKDAY(A110,2)=6,IF(F110&gt;0,0,MIN(pojemnosc-E110,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2500000</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>41869</v>
       </c>
       <c r="B111" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2500000</v>
       </c>
       <c r="E111" s="4">
-        <f>IF(C111,103%*D111,99%*(D111-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2376000</v>
       </c>
       <c r="F111" s="5">
-        <f>IF(E111&gt;pojemnosc,E111-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G111" s="5">
-        <f>IF(WEEKDAY(A111,2)=6,IF(F111&gt;0,0,MIN(pojemnosc-E111,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2376000</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>41870</v>
       </c>
       <c r="B112" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2376000</v>
       </c>
       <c r="E112" s="4">
-        <f>IF(C112,103%*D112,99%*(D112-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2253240</v>
       </c>
       <c r="F112" s="5">
-        <f>IF(E112&gt;pojemnosc,E112-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G112" s="5">
-        <f>IF(WEEKDAY(A112,2)=6,IF(F112&gt;0,0,MIN(pojemnosc-E112,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2253240</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>41871</v>
       </c>
       <c r="B113" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2253240</v>
       </c>
       <c r="E113" s="4">
-        <f>IF(C113,103%*D113,99%*(D113-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2131707.6</v>
       </c>
       <c r="F113" s="5">
-        <f>IF(E113&gt;pojemnosc,E113-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G113" s="5">
-        <f>IF(WEEKDAY(A113,2)=6,IF(F113&gt;0,0,MIN(pojemnosc-E113,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2131707.6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>41872</v>
       </c>
       <c r="B114" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
       </c>
       <c r="D114" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2131707.6</v>
       </c>
       <c r="E114" s="4">
-        <f>IF(C114,103%*D114,99%*(D114-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2011390.524</v>
       </c>
       <c r="F114" s="5">
-        <f>IF(E114&gt;pojemnosc,E114-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G114" s="5">
-        <f>IF(WEEKDAY(A114,2)=6,IF(F114&gt;0,0,MIN(pojemnosc-E114,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2011390.524</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>41873</v>
       </c>
       <c r="B115" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2011390.524</v>
       </c>
       <c r="E115" s="4">
-        <f>IF(C115,103%*D115,99%*(D115-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1892276.61876</v>
       </c>
       <c r="F115" s="5">
-        <f>IF(E115&gt;pojemnosc,E115-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G115" s="5">
-        <f>IF(WEEKDAY(A115,2)=6,IF(F115&gt;0,0,MIN(pojemnosc-E115,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1892276.61876</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>41874</v>
       </c>
       <c r="B116" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
       </c>
       <c r="D116" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1892276.61876</v>
       </c>
       <c r="E116" s="4">
-        <f>IF(C116,103%*D116,99%*(D116-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1774353.8525723999</v>
       </c>
       <c r="F116" s="5">
-        <f>IF(E116&gt;pojemnosc,E116-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G116" s="5">
-        <f>IF(WEEKDAY(A116,2)=6,IF(F116&gt;0,0,MIN(pojemnosc-E116,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>500000</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2274353.8525724001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>41875</v>
       </c>
       <c r="B117" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
       </c>
       <c r="D117" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2274353.8525724001</v>
       </c>
       <c r="E117" s="4">
-        <f>IF(C117,103%*D117,99%*(D117-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2152610.3140466763</v>
       </c>
       <c r="F117" s="5">
-        <f>IF(E117&gt;pojemnosc,E117-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G117" s="5">
-        <f>IF(WEEKDAY(A117,2)=6,IF(F117&gt;0,0,MIN(pojemnosc-E117,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2152610.3140466763</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>41876</v>
       </c>
       <c r="B118" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
       </c>
       <c r="D118" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2152610.3140466763</v>
       </c>
       <c r="E118" s="4">
-        <f>IF(C118,103%*D118,99%*(D118-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2032084.2109062094</v>
       </c>
       <c r="F118" s="5">
-        <f>IF(E118&gt;pojemnosc,E118-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G118" s="5">
-        <f>IF(WEEKDAY(A118,2)=6,IF(F118&gt;0,0,MIN(pojemnosc-E118,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2032084.2109062094</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>41877</v>
       </c>
       <c r="B119" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2032084.2109062094</v>
       </c>
       <c r="E119" s="4">
-        <f>IF(C119,103%*D119,99%*(D119-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1912763.3687971474</v>
       </c>
       <c r="F119" s="5">
-        <f>IF(E119&gt;pojemnosc,E119-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G119" s="5">
-        <f>IF(WEEKDAY(A119,2)=6,IF(F119&gt;0,0,MIN(pojemnosc-E119,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1912763.3687971474</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>41878</v>
       </c>
       <c r="B120" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
       </c>
       <c r="D120" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1912763.3687971474</v>
       </c>
       <c r="E120" s="4">
-        <f>IF(C120,103%*D120,99%*(D120-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1794635.735109176</v>
       </c>
       <c r="F120" s="5">
-        <f>IF(E120&gt;pojemnosc,E120-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G120" s="5">
-        <f>IF(WEEKDAY(A120,2)=6,IF(F120&gt;0,0,MIN(pojemnosc-E120,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1794635.735109176</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>41879</v>
       </c>
       <c r="B121" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C121" s="2">
         <v>1</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1794635.735109176</v>
       </c>
       <c r="E121" s="4">
-        <f>IF(C121,103%*D121,99%*(D121-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1848474.8071624513</v>
       </c>
       <c r="F121" s="5">
-        <f>IF(E121&gt;pojemnosc,E121-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G121" s="5">
-        <f>IF(WEEKDAY(A121,2)=6,IF(F121&gt;0,0,MIN(pojemnosc-E121,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1848474.8071624513</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>41880</v>
       </c>
       <c r="B122" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1848474.8071624513</v>
       </c>
       <c r="E122" s="4">
-        <f>IF(C122,103%*D122,99%*(D122-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1730990.0590908269</v>
       </c>
       <c r="F122" s="5">
-        <f>IF(E122&gt;pojemnosc,E122-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G122" s="5">
-        <f>IF(WEEKDAY(A122,2)=6,IF(F122&gt;0,0,MIN(pojemnosc-E122,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1730990.0590908269</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>41881</v>
       </c>
       <c r="B123" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
       </c>
       <c r="D123" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1730990.0590908269</v>
       </c>
       <c r="E123" s="4">
-        <f>IF(C123,103%*D123,99%*(D123-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1614680.1584999186</v>
       </c>
       <c r="F123" s="5">
-        <f>IF(E123&gt;pojemnosc,E123-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G123" s="5">
-        <f>IF(WEEKDAY(A123,2)=6,IF(F123&gt;0,0,MIN(pojemnosc-E123,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>500000</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2114680.1584999189</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>41882</v>
       </c>
       <c r="B124" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C124" s="2">
         <v>1</v>
       </c>
       <c r="D124" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2114680.1584999189</v>
       </c>
       <c r="E124" s="4">
-        <f>IF(C124,103%*D124,99%*(D124-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2178120.5632549166</v>
       </c>
       <c r="F124" s="5">
-        <f>IF(E124&gt;pojemnosc,E124-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G124" s="5">
-        <f>IF(WEEKDAY(A124,2)=6,IF(F124&gt;0,0,MIN(pojemnosc-E124,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2178120.5632549166</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>41883</v>
       </c>
       <c r="B125" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
       </c>
       <c r="D125" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2178120.5632549166</v>
       </c>
       <c r="E125" s="4">
-        <f>IF(C125,103%*D125,99%*(D125-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>2057339.3576223673</v>
       </c>
       <c r="F125" s="5">
-        <f>IF(E125&gt;pojemnosc,E125-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G125" s="5">
-        <f>IF(WEEKDAY(A125,2)=6,IF(F125&gt;0,0,MIN(pojemnosc-E125,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2057339.3576223673</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>41884</v>
       </c>
       <c r="B126" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2057339.3576223673</v>
       </c>
       <c r="E126" s="4">
-        <f>IF(C126,103%*D126,99%*(D126-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1937765.9640461437</v>
       </c>
       <c r="F126" s="5">
-        <f>IF(E126&gt;pojemnosc,E126-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G126" s="5">
-        <f>IF(WEEKDAY(A126,2)=6,IF(F126&gt;0,0,MIN(pojemnosc-E126,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1937765.9640461437</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>41885</v>
       </c>
       <c r="B127" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
       </c>
       <c r="D127" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1937765.9640461437</v>
       </c>
       <c r="E127" s="4">
-        <f>IF(C127,103%*D127,99%*(D127-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1819388.3044056823</v>
       </c>
       <c r="F127" s="5">
-        <f>IF(E127&gt;pojemnosc,E127-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G127" s="5">
-        <f>IF(WEEKDAY(A127,2)=6,IF(F127&gt;0,0,MIN(pojemnosc-E127,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1819388.3044056823</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>41886</v>
       </c>
       <c r="B128" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
       </c>
       <c r="D128" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1819388.3044056823</v>
       </c>
       <c r="E128" s="4">
-        <f>IF(C128,103%*D128,99%*(D128-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1702194.4213616254</v>
       </c>
       <c r="F128" s="5">
-        <f>IF(E128&gt;pojemnosc,E128-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G128" s="5">
-        <f>IF(WEEKDAY(A128,2)=6,IF(F128&gt;0,0,MIN(pojemnosc-E128,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1702194.4213616254</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>41887</v>
       </c>
       <c r="B129" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
       </c>
       <c r="D129" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1702194.4213616254</v>
       </c>
       <c r="E129" s="4">
-        <f>IF(C129,103%*D129,99%*(D129-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="15"/>
         <v>1586172.4771480092</v>
       </c>
       <c r="F129" s="5">
-        <f>IF(E129&gt;pojemnosc,E129-pojemnosc,0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G129" s="5">
-        <f>IF(WEEKDAY(A129,2)=6,IF(F129&gt;0,0,MIN(pojemnosc-E129,500000)),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1586172.4771480092</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>41888</v>
       </c>
       <c r="B130" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1586172.4771480092</v>
       </c>
       <c r="E130" s="4">
-        <f>IF(C130,103%*D130,99%*(D130-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" ref="E130:E161" si="18">IF(C130,103%*D130,99%*(D130-2*l_dzialek*powierzchnia))</f>
         <v>1471310.7523765292</v>
       </c>
       <c r="F130" s="5">
-        <f>IF(E130&gt;pojemnosc,E130-pojemnosc,0)</f>
+        <f t="shared" ref="F130:F161" si="19">IF(E130&gt;pojemnosc,E130-pojemnosc,0)</f>
         <v>0</v>
       </c>
       <c r="G130" s="5">
-        <f>IF(WEEKDAY(A130,2)=6,IF(F130&gt;0,0,MIN(pojemnosc-E130,500000)),0)</f>
+        <f t="shared" ref="G130:G161" si="20">IF(WEEKDAY(A130,2)=6,IF(F130&gt;0,0,MIN(pojemnosc-E130,500000)),0)</f>
         <v>500000</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1971310.7523765292</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>41889</v>
       </c>
       <c r="B131" s="6">
-        <f t="shared" ref="B131:B154" si="6">WEEKDAY(A131,2)</f>
+        <f t="shared" ref="B131:B154" si="21">WEEKDAY(A131,2)</f>
         <v>7</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1971310.7523765292</v>
       </c>
       <c r="E131" s="4">
-        <f>IF(C131,103%*D131,99%*(D131-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1852597.6448527637</v>
       </c>
       <c r="F131" s="5">
-        <f>IF(E131&gt;pojemnosc,E131-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G131" s="5">
-        <f>IF(WEEKDAY(A131,2)=6,IF(F131&gt;0,0,MIN(pojemnosc-E131,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1852597.6448527637</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>41890</v>
       </c>
       <c r="B132" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C132" s="2">
         <v>1</v>
       </c>
       <c r="D132" s="4">
-        <f t="shared" ref="D132:D154" si="7">H131</f>
+        <f t="shared" ref="D132:D154" si="22">H131</f>
         <v>1852597.6448527637</v>
       </c>
       <c r="E132" s="4">
-        <f>IF(C132,103%*D132,99%*(D132-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1908175.5741983468</v>
       </c>
       <c r="F132" s="5">
-        <f>IF(E132&gt;pojemnosc,E132-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G132" s="5">
-        <f>IF(WEEKDAY(A132,2)=6,IF(F132&gt;0,0,MIN(pojemnosc-E132,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132:H154" si="8">E132-F132+G132</f>
+        <f t="shared" ref="H132:H154" si="23">E132-F132+G132</f>
         <v>1908175.5741983468</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>41891</v>
       </c>
       <c r="B133" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1908175.5741983468</v>
       </c>
       <c r="E133" s="4">
-        <f>IF(C133,103%*D133,99%*(D133-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1790093.8184563634</v>
       </c>
       <c r="F133" s="5">
-        <f>IF(E133&gt;pojemnosc,E133-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G133" s="5">
-        <f>IF(WEEKDAY(A133,2)=6,IF(F133&gt;0,0,MIN(pojemnosc-E133,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1790093.8184563634</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>41892</v>
       </c>
       <c r="B134" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1790093.8184563634</v>
       </c>
       <c r="E134" s="4">
-        <f>IF(C134,103%*D134,99%*(D134-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1673192.8802717999</v>
       </c>
       <c r="F134" s="5">
-        <f>IF(E134&gt;pojemnosc,E134-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G134" s="5">
-        <f>IF(WEEKDAY(A134,2)=6,IF(F134&gt;0,0,MIN(pojemnosc-E134,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1673192.8802717999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>41893</v>
       </c>
       <c r="B135" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
       </c>
       <c r="D135" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1673192.8802717999</v>
       </c>
       <c r="E135" s="4">
-        <f>IF(C135,103%*D135,99%*(D135-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1557460.9514690819</v>
       </c>
       <c r="F135" s="5">
-        <f>IF(E135&gt;pojemnosc,E135-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G135" s="5">
-        <f>IF(WEEKDAY(A135,2)=6,IF(F135&gt;0,0,MIN(pojemnosc-E135,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1557460.9514690819</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>41894</v>
       </c>
       <c r="B136" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
       </c>
       <c r="D136" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1557460.9514690819</v>
       </c>
       <c r="E136" s="4">
-        <f>IF(C136,103%*D136,99%*(D136-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1442886.341954391</v>
       </c>
       <c r="F136" s="5">
-        <f>IF(E136&gt;pojemnosc,E136-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G136" s="5">
-        <f>IF(WEEKDAY(A136,2)=6,IF(F136&gt;0,0,MIN(pojemnosc-E136,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1442886.341954391</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>41895</v>
       </c>
       <c r="B137" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
       </c>
       <c r="D137" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1442886.341954391</v>
       </c>
       <c r="E137" s="4">
-        <f>IF(C137,103%*D137,99%*(D137-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1329457.478534847</v>
       </c>
       <c r="F137" s="5">
-        <f>IF(E137&gt;pojemnosc,E137-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G137" s="5">
-        <f>IF(WEEKDAY(A137,2)=6,IF(F137&gt;0,0,MIN(pojemnosc-E137,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>500000</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1829457.478534847</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>41896</v>
       </c>
       <c r="B138" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
       </c>
       <c r="D138" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1829457.478534847</v>
       </c>
       <c r="E138" s="4">
-        <f>IF(C138,103%*D138,99%*(D138-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1712162.9037494985</v>
       </c>
       <c r="F138" s="5">
-        <f>IF(E138&gt;pojemnosc,E138-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G138" s="5">
-        <f>IF(WEEKDAY(A138,2)=6,IF(F138&gt;0,0,MIN(pojemnosc-E138,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1712162.9037494985</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>41897</v>
       </c>
       <c r="B139" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C139" s="2">
         <v>1</v>
       </c>
       <c r="D139" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1712162.9037494985</v>
       </c>
       <c r="E139" s="4">
-        <f>IF(C139,103%*D139,99%*(D139-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1763527.7908619836</v>
       </c>
       <c r="F139" s="5">
-        <f>IF(E139&gt;pojemnosc,E139-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G139" s="5">
-        <f>IF(WEEKDAY(A139,2)=6,IF(F139&gt;0,0,MIN(pojemnosc-E139,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1763527.7908619836</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>41898</v>
       </c>
       <c r="B140" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
       </c>
       <c r="D140" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1763527.7908619836</v>
       </c>
       <c r="E140" s="4">
-        <f>IF(C140,103%*D140,99%*(D140-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1646892.5129533636</v>
       </c>
       <c r="F140" s="5">
-        <f>IF(E140&gt;pojemnosc,E140-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G140" s="5">
-        <f>IF(WEEKDAY(A140,2)=6,IF(F140&gt;0,0,MIN(pojemnosc-E140,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1646892.5129533636</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>41899</v>
       </c>
       <c r="B141" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
       </c>
       <c r="D141" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1646892.5129533636</v>
       </c>
       <c r="E141" s="4">
-        <f>IF(C141,103%*D141,99%*(D141-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1531423.5878238298</v>
       </c>
       <c r="F141" s="5">
-        <f>IF(E141&gt;pojemnosc,E141-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G141" s="5">
-        <f>IF(WEEKDAY(A141,2)=6,IF(F141&gt;0,0,MIN(pojemnosc-E141,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1531423.5878238298</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>41900</v>
       </c>
       <c r="B142" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
       </c>
       <c r="D142" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1531423.5878238298</v>
       </c>
       <c r="E142" s="4">
-        <f>IF(C142,103%*D142,99%*(D142-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1417109.3519455916</v>
       </c>
       <c r="F142" s="5">
-        <f>IF(E142&gt;pojemnosc,E142-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G142" s="5">
-        <f>IF(WEEKDAY(A142,2)=6,IF(F142&gt;0,0,MIN(pojemnosc-E142,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1417109.3519455916</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>41901</v>
       </c>
       <c r="B143" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
       </c>
       <c r="D143" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1417109.3519455916</v>
       </c>
       <c r="E143" s="4">
-        <f>IF(C143,103%*D143,99%*(D143-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1303938.2584261356</v>
       </c>
       <c r="F143" s="5">
-        <f>IF(E143&gt;pojemnosc,E143-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G143" s="5">
-        <f>IF(WEEKDAY(A143,2)=6,IF(F143&gt;0,0,MIN(pojemnosc-E143,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1303938.2584261356</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>41902</v>
       </c>
       <c r="B144" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
       </c>
       <c r="D144" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1303938.2584261356</v>
       </c>
       <c r="E144" s="4">
-        <f>IF(C144,103%*D144,99%*(D144-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1191898.8758418742</v>
       </c>
       <c r="F144" s="5">
-        <f>IF(E144&gt;pojemnosc,E144-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G144" s="5">
-        <f>IF(WEEKDAY(A144,2)=6,IF(F144&gt;0,0,MIN(pojemnosc-E144,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>500000</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1691898.8758418742</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>41903</v>
       </c>
       <c r="B145" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
       </c>
       <c r="D145" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1691898.8758418742</v>
       </c>
       <c r="E145" s="4">
-        <f>IF(C145,103%*D145,99%*(D145-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1575979.8870834555</v>
       </c>
       <c r="F145" s="5">
-        <f>IF(E145&gt;pojemnosc,E145-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G145" s="5">
-        <f>IF(WEEKDAY(A145,2)=6,IF(F145&gt;0,0,MIN(pojemnosc-E145,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1575979.8870834555</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>41904</v>
       </c>
       <c r="B146" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
       </c>
       <c r="D146" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1575979.8870834555</v>
       </c>
       <c r="E146" s="4">
-        <f>IF(C146,103%*D146,99%*(D146-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1461220.0882126209</v>
       </c>
       <c r="F146" s="5">
-        <f>IF(E146&gt;pojemnosc,E146-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G146" s="5">
-        <f>IF(WEEKDAY(A146,2)=6,IF(F146&gt;0,0,MIN(pojemnosc-E146,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1461220.0882126209</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>41905</v>
       </c>
       <c r="B147" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C147" s="2">
         <v>1</v>
       </c>
       <c r="D147" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1461220.0882126209</v>
       </c>
       <c r="E147" s="4">
-        <f>IF(C147,103%*D147,99%*(D147-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1505056.6908589995</v>
       </c>
       <c r="F147" s="5">
-        <f>IF(E147&gt;pojemnosc,E147-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G147" s="5">
-        <f>IF(WEEKDAY(A147,2)=6,IF(F147&gt;0,0,MIN(pojemnosc-E147,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1505056.6908589995</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>41906</v>
       </c>
       <c r="B148" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
       </c>
       <c r="D148" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1505056.6908589995</v>
       </c>
       <c r="E148" s="4">
-        <f>IF(C148,103%*D148,99%*(D148-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1391006.1239504095</v>
       </c>
       <c r="F148" s="5">
-        <f>IF(E148&gt;pojemnosc,E148-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G148" s="5">
-        <f>IF(WEEKDAY(A148,2)=6,IF(F148&gt;0,0,MIN(pojemnosc-E148,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1391006.1239504095</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>41907</v>
       </c>
       <c r="B149" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="C149" s="2">
         <v>1</v>
       </c>
       <c r="D149" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1391006.1239504095</v>
       </c>
       <c r="E149" s="4">
-        <f>IF(C149,103%*D149,99%*(D149-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1432736.3076689218</v>
       </c>
       <c r="F149" s="5">
-        <f>IF(E149&gt;pojemnosc,E149-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G149" s="5">
-        <f>IF(WEEKDAY(A149,2)=6,IF(F149&gt;0,0,MIN(pojemnosc-E149,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1432736.3076689218</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>41908</v>
       </c>
       <c r="B150" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
       </c>
       <c r="D150" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1432736.3076689218</v>
       </c>
       <c r="E150" s="4">
-        <f>IF(C150,103%*D150,99%*(D150-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1319408.9445922326</v>
       </c>
       <c r="F150" s="5">
-        <f>IF(E150&gt;pojemnosc,E150-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G150" s="5">
-        <f>IF(WEEKDAY(A150,2)=6,IF(F150&gt;0,0,MIN(pojemnosc-E150,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1319408.9445922326</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>41909</v>
       </c>
       <c r="B151" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
       </c>
       <c r="D151" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1319408.9445922326</v>
       </c>
       <c r="E151" s="4">
-        <f>IF(C151,103%*D151,99%*(D151-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1207214.8551463103</v>
       </c>
       <c r="F151" s="5">
-        <f>IF(E151&gt;pojemnosc,E151-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G151" s="5">
-        <f>IF(WEEKDAY(A151,2)=6,IF(F151&gt;0,0,MIN(pojemnosc-E151,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>500000</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1707214.8551463103</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>41910</v>
       </c>
       <c r="B152" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
       </c>
       <c r="D152" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1707214.8551463103</v>
       </c>
       <c r="E152" s="4">
-        <f>IF(C152,103%*D152,99%*(D152-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1591142.7065948471</v>
       </c>
       <c r="F152" s="5">
-        <f>IF(E152&gt;pojemnosc,E152-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G152" s="5">
-        <f>IF(WEEKDAY(A152,2)=6,IF(F152&gt;0,0,MIN(pojemnosc-E152,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1591142.7065948471</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>41911</v>
       </c>
       <c r="B153" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
       </c>
       <c r="D153" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1591142.7065948471</v>
       </c>
       <c r="E153" s="4">
-        <f>IF(C153,103%*D153,99%*(D153-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1638876.9877926926</v>
       </c>
       <c r="F153" s="5">
-        <f>IF(E153&gt;pojemnosc,E153-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G153" s="5">
-        <f>IF(WEEKDAY(A153,2)=6,IF(F153&gt;0,0,MIN(pojemnosc-E153,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1638876.9877926926</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>41912</v>
       </c>
       <c r="B154" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="C154" s="2">
         <v>1</v>
       </c>
       <c r="D154" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>1638876.9877926926</v>
       </c>
       <c r="E154" s="4">
-        <f>IF(C154,103%*D154,99%*(D154-2*l_dzialek*powierzchnia))</f>
+        <f t="shared" si="18"/>
         <v>1688043.2974264733</v>
       </c>
       <c r="F154" s="5">
-        <f>IF(E154&gt;pojemnosc,E154-pojemnosc,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G154" s="5">
-        <f>IF(WEEKDAY(A154,2)=6,IF(F154&gt;0,0,MIN(pojemnosc-E154,500000)),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>1688043.2974264733</v>
       </c>
     </row>
@@ -5458,35 +5460,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1360146D-D557-4127-8FD9-3201DF568C09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5511,19 +5513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A07114-EE71-4EA9-9CF2-120176CC6C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
